--- a/CASUAL/LA PICNIC GROVE/VALDEZ, JACKILYN.xlsx
+++ b/CASUAL/LA PICNIC GROVE/VALDEZ, JACKILYN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>UT(0-3-37)</t>
+  </si>
+  <si>
+    <t>UT(0-2-46)</t>
+  </si>
+  <si>
+    <t>UT(0-0-55)</t>
   </si>
 </sst>
 </file>
@@ -3266,9 +3272,9 @@
   <dimension ref="A2:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A43" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3427,7 +3433,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>42.716999999999999</v>
+        <v>42.256</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4182,11 +4188,15 @@
       <c r="A46" s="40">
         <v>44621</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
-      <c r="D46" s="39"/>
+      <c r="D46" s="39">
+        <v>0.115</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
@@ -4306,11 +4316,15 @@
       <c r="A52" s="40">
         <v>44805</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
-      <c r="D52" s="39"/>
+      <c r="D52" s="39">
+        <v>0.34599999999999997</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
@@ -7734,15 +7748,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3">
-        <v>3</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.45200000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
